--- a/archivos/tacrolimus.xlsx
+++ b/archivos/tacrolimus.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenny/Dropbox/Lenny/UChile/Inverskin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA729CA3-3FDD-604F-83DB-A11857978DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859FDDD-14A6-B645-96E5-4B645F81A8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="940" windowWidth="27640" windowHeight="15460" xr2:uid="{0BEC6956-3871-0749-948A-8C5AF4DC2454}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>C1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>paciente</t>
+  </si>
+  <si>
+    <t>tiempo</t>
   </si>
 </sst>
 </file>
@@ -396,202 +399,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197E28E8-0BC0-4F44-83C6-BAF2978FC737}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5.9</v>
       </c>
-      <c r="C2">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A48" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>7.7</v>
       </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>6.9</v>
       </c>
-      <c r="C5">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="C6">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6.1</v>
-      </c>
-      <c r="C9">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5.8</v>
-      </c>
-      <c r="C10">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>5.5</v>
-      </c>
-      <c r="C11">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7.2</v>
-      </c>
-      <c r="C12">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C13">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6.3</v>
-      </c>
-      <c r="C14">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>9.1</v>
-      </c>
-      <c r="C15">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C16">
-        <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,10 +606,10 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>3.4</v>
-      </c>
-      <c r="C17">
-        <v>7.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,10 +618,10 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>7</v>
-      </c>
-      <c r="C18">
-        <v>13.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>7.5</v>
-      </c>
-      <c r="C19">
-        <v>12.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>5.6</v>
-      </c>
-      <c r="C20">
-        <v>23.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>9.1</v>
-      </c>
-      <c r="C21">
-        <v>7.6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -660,10 +666,10 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>6.8</v>
-      </c>
-      <c r="C22">
-        <v>9.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>7.5</v>
-      </c>
-      <c r="C23">
-        <v>20.7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,10 +690,10 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>8</v>
-      </c>
-      <c r="C24">
-        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,10 +702,10 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="C25">
-        <v>9.1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +714,10 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>8.8000000000000007</v>
-      </c>
-      <c r="C26">
-        <v>9.4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,10 +726,10 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="C27">
-        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,10 +738,10 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>5.6</v>
-      </c>
-      <c r="C28">
-        <v>9.4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +750,10 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>8.5</v>
-      </c>
-      <c r="C29">
-        <v>13.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,10 +762,10 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="C30">
-        <v>12.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="C31">
-        <v>9.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +786,10 @@
         <v>31</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>4.5</v>
-      </c>
-      <c r="C32">
-        <v>12.4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,10 +798,10 @@
         <v>32</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>6</v>
-      </c>
-      <c r="C33">
-        <v>13.7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,10 +810,10 @@
         <v>33</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>3</v>
-      </c>
-      <c r="C34">
-        <v>15.3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,10 +822,10 @@
         <v>34</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>7.6</v>
-      </c>
-      <c r="C35">
-        <v>12.4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +834,10 @@
         <v>35</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>8.6999999999999993</v>
-      </c>
-      <c r="C36">
-        <v>15.3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="C37">
-        <v>7.7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>9.8000000000000007</v>
-      </c>
-      <c r="C38">
-        <v>16.2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -864,10 +870,10 @@
         <v>38</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>6.8</v>
-      </c>
-      <c r="C39">
-        <v>17.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,10 +882,10 @@
         <v>39</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>9.6999999999999993</v>
-      </c>
-      <c r="C40">
-        <v>17.2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +894,10 @@
         <v>40</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>7.8</v>
-      </c>
-      <c r="C41">
-        <v>18.7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,10 +906,10 @@
         <v>41</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="C42">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,10 +918,10 @@
         <v>42</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>7.8</v>
-      </c>
-      <c r="C43">
-        <v>13.6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,10 +930,10 @@
         <v>43</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="C44">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,10 +942,10 @@
         <v>44</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>9.6</v>
-      </c>
-      <c r="C45">
-        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,10 +954,10 @@
         <v>45</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>7.7</v>
-      </c>
-      <c r="C46">
-        <v>15.8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,10 +966,10 @@
         <v>46</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>7.6</v>
-      </c>
-      <c r="C47">
-        <v>15.6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,9 +978,572 @@
         <v>47</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>6.7</v>
       </c>
-      <c r="C48">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ref="A51:A95" si="1">A50+1</f>
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
         <v>12.8</v>
       </c>
     </row>
